--- a/المصنف2.xlsx
+++ b/المصنف2.xlsx
@@ -1620,6 +1620,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-1010000]yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1775,7 +1778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1829,6 +1832,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2114,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G737"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2123,6 +2130,8 @@
     <col min="1" max="1" width="31.5" style="17" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="17" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -2146,7 +2155,7 @@
       <c r="E2" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="20" t="s">
         <v>528</v>
       </c>
       <c r="G2" s="18" t="s">
@@ -7716,5 +7725,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>